--- a/patient_data/patient_33.xlsx
+++ b/patient_data/patient_33.xlsx
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1149,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
